--- a/invoice_gen/TEMPLATE/CLW.xlsx
+++ b/invoice_gen/TEMPLATE/CLW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\gen_inv\TEMPLATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\inv_pkl_contract_creation - Copy\invoice_gen\TEMPLATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF050BCA-5CB4-48C1-AA3C-C0BFB30B66BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9C42D8-58A3-409E-9DD2-64F54C7FF78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="Packing list" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$G$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Packing list'!$A$1:$K$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$G$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Packing list'!$A$1:$K$30</definedName>
   </definedNames>
   <calcPr calcId="191029" fullPrecision="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>DAP:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BINH DUONG</t>
   </si>
   <si>
     <r>
@@ -113,19 +110,10 @@
     <t>Wanek Furniture Co., LTD.</t>
   </si>
   <si>
-    <t>Lot D_5A_CN, D_5C_CN, D_5E_CN, My Phuoc 3 Industrial Park, Thoi Hoa Ward, Ben Cat City,</t>
-  </si>
-  <si>
-    <t>Binh Duong Province, Vietnam.</t>
-  </si>
-  <si>
     <t>P+84 650 3655 200 EXT:7074 MS EMILY(C&amp;L)/MS DOROTHY(CR) EXT:7036 MS JANE (PURCHASING)</t>
   </si>
   <si>
     <t xml:space="preserve">SHIP: </t>
-  </si>
-  <si>
-    <t>BY TRUCK FROM BAVET, SVAY RIENG, CAMBODIA TO BINH DUONG PROVINCE, VIETNAM.</t>
   </si>
   <si>
     <t>Country of Original Cambodia</t>
@@ -229,9 +217,6 @@
     <t>Wanek Furniture Co., LTD</t>
   </si>
   <si>
-    <t>Lot D_5A_CN, D_5C_CN, D_5E_CN, My Phuoc 3 Industrial Park, Thoi Hoa Ward, Ben Cat City,</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -288,24 +273,29 @@
     <t>JFREF</t>
   </si>
   <si>
-    <t>BINH DUONG</t>
-  </si>
-  <si>
     <t>JFTIME</t>
   </si>
   <si>
     <t>JFINV</t>
+  </si>
+  <si>
+    <t>Lot D_5A_CN, D_5C_CN, D_5E_CN, My Phuoc 3 Industrial Park, Thoi Hoa Ward, Ho Chi Minh City, Vietnam.</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>BY TRUCK FROM BAVET, SVAY RIENG, CAMBODIA TO HO CHI MINH, VIETNAM.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,13 +490,6 @@
       <color theme="0"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -586,11 +569,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -635,18 +617,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -686,8 +656,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -757,6 +725,18 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -772,23 +752,20 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -800,9 +777,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -824,18 +798,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -863,14 +830,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304165</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>682625</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>250825</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>250826</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -907,13 +874,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1116330</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>392430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>248098</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>186242</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -956,13 +923,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>865505</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>531495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>862330</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>290828</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1000,14 +967,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>745490</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1644650</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>428627</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>428628</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1302,10 +1269,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="87" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="87" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -1315,7 +1282,7 @@
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="41" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="35" customWidth="1"/>
     <col min="8" max="8" width="25.140625" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
@@ -1323,359 +1290,341 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="1:7" ht="83.25" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>39</v>
+      <c r="G7" s="25" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="31" t="s">
+      <c r="C8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="31" t="s">
-        <v>42</v>
+      <c r="G8" s="27" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="39" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="31" t="s">
+      <c r="C9" s="33"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="32" t="s">
-        <v>41</v>
+      <c r="G9" s="28" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="45" t="s">
+      <c r="C10" s="33"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="40" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="32" t="str">
+      <c r="G11" s="28" t="str">
         <f>G9</f>
         <v>JFTIME</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.95" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="32" t="e">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="28" t="e">
         <f>G11+1</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="C13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-    </row>
-    <row r="14" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="52" t="s">
+      <c r="C15" s="49"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+    </row>
+    <row r="16" spans="1:7" ht="27.75" customHeight="1">
+      <c r="A16" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-    </row>
-    <row r="15" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="52" t="s">
+      <c r="B16" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" ht="27.75" customHeight="1">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+    </row>
+    <row r="18" spans="1:7" ht="27.75" customHeight="1">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+    </row>
+    <row r="19" spans="1:7" ht="27.75" customHeight="1">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+    </row>
+    <row r="20" spans="1:7" ht="27.75" customHeight="1">
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="45"/>
+    </row>
+    <row r="21" spans="1:7" ht="42" customHeight="1">
+      <c r="A21" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="51"/>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="55" t="s">
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:7" ht="61.5" customHeight="1">
+      <c r="A22" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-    </row>
-    <row r="17" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="51"/>
-    </row>
-    <row r="18" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A18" s="56" t="s">
+      <c r="B22" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="F18" s="41"/>
-    </row>
-    <row r="19" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-    </row>
-    <row r="20" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-    </row>
-    <row r="21" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-    </row>
-    <row r="22" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="51"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7" ht="42" customHeight="1">
       <c r="A23" s="68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="68"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="42"/>
-    </row>
-    <row r="24" spans="1:7" ht="61.5" customHeight="1">
-      <c r="A24" s="60" t="s">
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="1:7" ht="24.75" customHeight="1">
+      <c r="A24" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+    </row>
+    <row r="25" spans="1:7" s="34" customFormat="1" ht="27" customHeight="1">
+      <c r="A25" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+    </row>
+    <row r="26" spans="1:7" ht="42" customHeight="1">
+      <c r="E26" s="33"/>
+      <c r="F26" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:7" ht="24" customHeight="1">
+      <c r="E27" s="25"/>
+      <c r="F27" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="42"/>
-    </row>
-    <row r="25" spans="1:7" ht="42" customHeight="1">
-      <c r="A25" s="70" t="s">
+    </row>
+    <row r="28" spans="1:7" ht="42" customHeight="1">
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="1:7" ht="53.1" customHeight="1">
+      <c r="E29" s="25"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+    </row>
+    <row r="30" spans="1:7" ht="27.75" customHeight="1">
+      <c r="F30" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="42"/>
-    </row>
-    <row r="26" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A26" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-    </row>
-    <row r="27" spans="1:7" s="40" customFormat="1" ht="27" customHeight="1">
-      <c r="A27" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-    </row>
-    <row r="28" spans="1:7" ht="42" customHeight="1">
-      <c r="E28" s="39"/>
-      <c r="F28" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="42"/>
-    </row>
-    <row r="29" spans="1:7" ht="24" customHeight="1">
-      <c r="E29" s="29"/>
-      <c r="F29" s="64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="42" customHeight="1">
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-    </row>
-    <row r="31" spans="1:7" ht="53.1" customHeight="1">
-      <c r="E31" s="29"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-    </row>
-    <row r="32" spans="1:7" ht="27.75" customHeight="1">
-      <c r="F32" s="65" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" ht="27.75" customHeight="1"/>
-    <row r="34" ht="27.75" customHeight="1"/>
-    <row r="35" ht="24.75" customHeight="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="27.75" customHeight="1"/>
+    <row r="32" spans="1:7" ht="27.75" customHeight="1"/>
+    <row r="33" ht="24.75" customHeight="1"/>
+    <row r="34" ht="21" customHeight="1"/>
+    <row r="35" ht="21" customHeight="1"/>
     <row r="36" ht="21" customHeight="1"/>
     <row r="37" ht="21" customHeight="1"/>
     <row r="38" ht="21" customHeight="1"/>
     <row r="39" ht="21" customHeight="1"/>
     <row r="40" ht="21" customHeight="1"/>
     <row r="41" ht="21" customHeight="1"/>
-    <row r="42" ht="21" customHeight="1"/>
+    <row r="42" ht="25.5" customHeight="1"/>
     <row r="43" ht="21" customHeight="1"/>
-    <row r="44" ht="25.5" customHeight="1"/>
+    <row r="44" ht="21" customHeight="1"/>
     <row r="45" ht="21" customHeight="1"/>
     <row r="46" ht="21" customHeight="1"/>
     <row r="47" ht="21" customHeight="1"/>
-    <row r="48" ht="21" customHeight="1"/>
-    <row r="49" ht="21" customHeight="1"/>
-    <row r="50" ht="17.25" customHeight="1"/>
-    <row r="62" ht="15" customHeight="1"/>
+    <row r="48" ht="17.25" customHeight="1"/>
+    <row r="60" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:G24"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:G26"/>
   </mergeCells>
-  <conditionalFormatting sqref="J23:J34">
+  <conditionalFormatting sqref="J21:J32">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>
     <cfRule type="uniqueValues" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
@@ -1692,10 +1641,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="83" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -1722,106 +1671,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1">
-      <c r="A2" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
+      <c r="A2" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" ht="54" customHeight="1">
-      <c r="A6" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
+      <c r="A6" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1">
       <c r="A7" s="5"/>
@@ -1834,79 +1783,79 @@
       <c r="J7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="29" t="s">
-        <v>39</v>
+      <c r="K7" s="25" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="31" t="s">
-        <v>42</v>
+      <c r="K8" s="27" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="32" t="s">
-        <v>41</v>
+      <c r="K9" s="28" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="22.5" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
+      <c r="B10" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="J10" s="30" t="str">
+      <c r="J10" s="26" t="str">
         <f>Invoice!F10</f>
         <v>DAP:</v>
       </c>
-      <c r="K10" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="33"/>
+      <c r="K10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="J11" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="32" t="str">
+      <c r="J11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="28" t="str">
         <f>K9</f>
         <v>JFTIME</v>
       </c>
@@ -1921,10 +1870,10 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="J12" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="32" t="e">
+      <c r="J12" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="28" t="e">
         <f>K11+1</f>
         <v>#VALUE!</v>
       </c>
@@ -1933,29 +1882,29 @@
     </row>
     <row r="13" spans="1:13" ht="25.5" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
+        <v>15</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="34"/>
+      <c r="J13" s="30"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="25.5" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
+      <c r="B14" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -1963,259 +1912,222 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="25.5" customHeight="1">
+    <row r="15" spans="1:13" ht="17.25" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
+      <c r="B15" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="34"/>
+      <c r="I15" s="13"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" ht="27.75" customHeight="1">
-      <c r="A17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="I17" s="4"/>
+    <row r="16" spans="1:13" ht="27.75" customHeight="1">
+      <c r="A16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" ht="42.95" customHeight="1">
+      <c r="A17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:14" ht="42.95" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="A18" s="17"/>
+      <c r="D18" s="8"/>
+      <c r="J18" s="2"/>
+      <c r="N18" s="31"/>
     </row>
     <row r="19" spans="1:14" ht="42.95" customHeight="1">
       <c r="A19" s="17"/>
       <c r="D19" s="8"/>
       <c r="J19" s="2"/>
-      <c r="N19" s="35"/>
+      <c r="N19" s="31"/>
     </row>
     <row r="20" spans="1:14" ht="42.95" customHeight="1">
       <c r="A20" s="17"/>
       <c r="D20" s="8"/>
       <c r="J20" s="2"/>
-      <c r="N20" s="35"/>
-    </row>
-    <row r="21" spans="1:14" ht="42.95" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="D21" s="8"/>
-      <c r="J21" s="2"/>
-      <c r="N21" s="35"/>
-    </row>
-    <row r="22" spans="1:14" ht="42.95" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="D22" s="8"/>
-      <c r="J22" s="2"/>
-      <c r="N22" s="35"/>
-    </row>
-    <row r="23" spans="1:14" customFormat="1" ht="42.95" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
+      <c r="N20" s="31"/>
+    </row>
+    <row r="21" spans="1:14" ht="42" customHeight="1">
+      <c r="A21" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="76"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="32"/>
+    </row>
+    <row r="22" spans="1:14" ht="61.5" customHeight="1">
+      <c r="A22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="32"/>
+    </row>
+    <row r="23" spans="1:14" ht="44.1" customHeight="1">
+      <c r="A23" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="81"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="37"/>
-      <c r="N23" s="36"/>
-    </row>
-    <row r="24" spans="1:14" ht="42" customHeight="1">
-      <c r="A24" s="78" t="s">
+      <c r="J23" s="6"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="32"/>
+    </row>
+    <row r="24" spans="1:14" ht="24.75" customHeight="1">
+      <c r="A24" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="36"/>
-    </row>
-    <row r="25" spans="1:14" ht="61.5" customHeight="1">
-      <c r="A25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="36"/>
-    </row>
-    <row r="26" spans="1:14" ht="44.1" customHeight="1">
-      <c r="A26" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="85"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A25" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+    </row>
+    <row r="26" spans="1:14" ht="42" customHeight="1">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="32" t="s">
+        <v>0</v>
+      </c>
       <c r="J26" s="6"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="36"/>
-    </row>
-    <row r="27" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A27" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-    </row>
-    <row r="28" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A28" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
+    </row>
+    <row r="27" spans="1:14" ht="24" customHeight="1">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" ht="69.75" customHeight="1">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:14" ht="42" customHeight="1">
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" ht="24" customHeight="1">
+      <c r="I29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+    </row>
+    <row r="30" spans="1:14" ht="53.1" customHeight="1">
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:14" ht="69.75" customHeight="1">
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:14" ht="42" customHeight="1">
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-    </row>
-    <row r="33" spans="7:12" ht="53.1" customHeight="1">
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="7:12" ht="27.75" customHeight="1"/>
-    <row r="35" spans="7:12" ht="27.75" customHeight="1"/>
-    <row r="36" spans="7:12" ht="27.75" customHeight="1"/>
-    <row r="37" spans="7:12" ht="24.75" customHeight="1"/>
-    <row r="38" spans="7:12" ht="21" customHeight="1"/>
-    <row r="39" spans="7:12" ht="21" customHeight="1"/>
-    <row r="40" spans="7:12" ht="21" customHeight="1"/>
-    <row r="41" spans="7:12" ht="21" customHeight="1"/>
-    <row r="42" spans="7:12" ht="21" customHeight="1"/>
-    <row r="43" spans="7:12" ht="21" customHeight="1"/>
-    <row r="44" spans="7:12" ht="21" customHeight="1"/>
-    <row r="45" spans="7:12" ht="21" customHeight="1"/>
-    <row r="46" spans="7:12" ht="25.5" customHeight="1"/>
-    <row r="47" spans="7:12" ht="21" customHeight="1"/>
-    <row r="48" spans="7:12" ht="21" customHeight="1"/>
-    <row r="49" ht="21" customHeight="1"/>
-    <row r="50" ht="21" customHeight="1"/>
-    <row r="51" ht="21" customHeight="1"/>
-    <row r="52" ht="17.25" customHeight="1"/>
-    <row r="64" ht="15" customHeight="1"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" ht="27.75" customHeight="1"/>
+    <row r="32" spans="1:14" ht="27.75" customHeight="1"/>
+    <row r="33" ht="27.75" customHeight="1"/>
+    <row r="34" ht="24.75" customHeight="1"/>
+    <row r="35" ht="21" customHeight="1"/>
+    <row r="36" ht="21" customHeight="1"/>
+    <row r="37" ht="21" customHeight="1"/>
+    <row r="38" ht="21" customHeight="1"/>
+    <row r="39" ht="21" customHeight="1"/>
+    <row r="40" ht="21" customHeight="1"/>
+    <row r="41" ht="21" customHeight="1"/>
+    <row r="42" ht="21" customHeight="1"/>
+    <row r="43" ht="25.5" customHeight="1"/>
+    <row r="44" ht="21" customHeight="1"/>
+    <row r="45" ht="21" customHeight="1"/>
+    <row r="46" ht="21" customHeight="1"/>
+    <row r="47" ht="21" customHeight="1"/>
+    <row r="48" ht="21" customHeight="1"/>
+    <row r="49" ht="17.25" customHeight="1"/>
+    <row r="61" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
+    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A28:M28"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:M27"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
-  <conditionalFormatting sqref="P28:P40">
+  <conditionalFormatting sqref="P25:P37">
     <cfRule type="duplicateValues" priority="3" stopIfTrue="1"/>
     <cfRule type="uniqueValues" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>

--- a/invoice_gen/TEMPLATE/CLW.xlsx
+++ b/invoice_gen/TEMPLATE/CLW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\inv_pkl_contract_creation - Copy\invoice_gen\TEMPLATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9C42D8-58A3-409E-9DD2-64F54C7FF78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBA1D77-4562-4802-B3D8-F92D7E9B9893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,6 +725,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,35 +752,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -777,6 +768,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -798,8 +792,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1271,8 +1271,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="87" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="87" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -1290,70 +1290,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="5" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="1:7" ht="83.25" customHeight="1">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="A7" s="25"/>
@@ -1508,12 +1508,12 @@
       <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7" ht="42" customHeight="1">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="36"/>
@@ -1522,47 +1522,47 @@
       <c r="A22" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="55"/>
       <c r="F22" s="25"/>
       <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7" ht="42" customHeight="1">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
       <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7" s="34" customFormat="1" ht="27" customHeight="1">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7" ht="42" customHeight="1">
       <c r="E26" s="33"/>
@@ -1612,17 +1612,17 @@
     <row r="60" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="J21:J32">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>
@@ -1643,8 +1643,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -1653,7 +1653,7 @@
     <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="28.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="55.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="2" customWidth="1"/>
@@ -1671,104 +1671,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="38.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" ht="54" customHeight="1">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
     </row>
@@ -1791,12 +1791,12 @@
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="J8" s="26" t="s">
@@ -1808,12 +1808,12 @@
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="J9" s="26" t="s">
@@ -1825,12 +1825,12 @@
     </row>
     <row r="10" spans="1:13" ht="22.5" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="J10" s="26" t="str">
@@ -1844,12 +1844,12 @@
     </row>
     <row r="11" spans="1:13" ht="20.25" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="J11" s="26" t="s">
@@ -1884,12 +1884,12 @@
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -1899,12 +1899,12 @@
     </row>
     <row r="14" spans="1:13" ht="25.5" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -1914,12 +1914,12 @@
     </row>
     <row r="15" spans="1:13" ht="17.25" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -1931,12 +1931,12 @@
       <c r="A16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:14" ht="42.95" customHeight="1">
@@ -1963,13 +1963,13 @@
       <c r="N20" s="31"/>
     </row>
     <row r="21" spans="1:14" ht="42" customHeight="1">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="18"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -1983,12 +1983,12 @@
       <c r="A22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
@@ -1999,13 +1999,13 @@
       <c r="N22" s="32"/>
     </row>
     <row r="23" spans="1:14" ht="44.1" customHeight="1">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -2017,38 +2017,38 @@
       <c r="N23" s="32"/>
     </row>
     <row r="24" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:14" ht="42" customHeight="1">
       <c r="G26" s="5"/>
@@ -2074,8 +2074,8 @@
       <c r="I29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
     </row>
     <row r="30" spans="1:14" ht="53.1" customHeight="1">
       <c r="G30" s="5"/>
@@ -2106,6 +2106,10 @@
     <row r="61" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
     <mergeCell ref="A25:M25"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="A21:E21"/>
@@ -2122,10 +2126,6 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="P25:P37">
     <cfRule type="duplicateValues" priority="3" stopIfTrue="1"/>
